--- a/TestCaseFor_OrangeHRM.xlsx
+++ b/TestCaseFor_OrangeHRM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e128e043a3f5334b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latitude\OneDrive\Pictures\Screenshots\Testing_class\Task\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF790ACC-D539-41AE-99D8-BA1832D245F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83037B52-FDAD-48FF-9A2F-85E3C6DD4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E268510E-E7EF-4177-9496-93435FAB452B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>Project Name</t>
   </si>
@@ -308,6 +308,108 @@
   </si>
   <si>
     <t>Logout sucessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify to add vacancies </t>
+  </si>
+  <si>
+    <t>Step 1: Click on Vacancies at the top.
+Step 2: Click on Add from the below.
+Step 3: Enter the valid credential for all the required fields.
+Step 4: Click on Save button.</t>
+  </si>
+  <si>
+    <t>Vacancy name :  Manual  Tester
+Job Title : Automation Tester
+Descriotion : Manual tester with strong knowledge in agile and Test scenarios.
+Hiring Manager: Thomas Kutty Benny
+Number of Positions: 2</t>
+  </si>
+  <si>
+    <t>Saved Successfully</t>
+  </si>
+  <si>
+    <t>ORM_SRHRQ_TC0004</t>
+  </si>
+  <si>
+    <t>ORM_SRHRQ_TC0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify to check the cancel button work or not From Add vacancies filed. </t>
+  </si>
+  <si>
+    <t>Step 1: Select Recruitment from the left.
+Step 2: Click on Vacancies from the top.
+Step 3: Clcik on Add button .
+Step 4: Scroll down and Click on Cancel Button from the below.</t>
+  </si>
+  <si>
+    <t>ORM_MYINF_TC0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Select Myinfo from the left side.
+Step 2: Click on personal details.
+Step 3: Modify the all required fields with valid credential.
+Step 4: Click on save button from each fields. </t>
+  </si>
+  <si>
+    <t>Employee full name: mike akhil user
+Employee id : muser2
+Other id : 4957191
+Driver's License Number: 56789
+License Expiry Date : 2023-19-10
+Nationality: Afghan
+Marital Status : Married
+Date of Birth: 1999-24-10
+Gender  : Male 
+Blood Type : B+
+Test Field: 445</t>
+  </si>
+  <si>
+    <t>Modify details successfully saved</t>
+  </si>
+  <si>
+    <t>ORM_MYINF_TC0002</t>
+  </si>
+  <si>
+    <t>Verfiy to Modify the Contact details</t>
+  </si>
+  <si>
+    <t>Verfiy to Modify the personal details</t>
+  </si>
+  <si>
+    <t>Step 1: Select Myinfo from the left side.
+Step 2: Click on Contact details.
+Step 3: Modify the all required fields with valid credential.
+Step 4: Click on save button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street 1 : gandhi nagar 
+City : Chennai
+State/Province: Tamilnadu 
+Zip/Postal Code: 600056
+Country : Afghanistan
+Mobile: 9890067000
+Work Email: gemini@gmail.com
+</t>
+  </si>
+  <si>
+    <t>Verfiy to modfily all field as blank and check to save</t>
+  </si>
+  <si>
+    <t>Step 1: Select Myinfo from the left side.
+Step 2: Click on Contact details.
+Step 3: Modify the all   fields as blank.
+Step 4: Click on save button.</t>
+  </si>
+  <si>
+    <t>ORM_MYINF_TC0003</t>
+  </si>
+  <si>
+    <t>showing alert for Missing required fields</t>
+  </si>
+  <si>
+    <t>All the fields are blank but saved successfully</t>
   </si>
 </sst>
 </file>
@@ -467,14 +569,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,30 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,6 +604,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2069E3-5B59-4449-8F28-2034C8C7B723}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,489 +978,620 @@
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="20">
         <v>45648</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+      <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="B13" s="6">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <v>6</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="6">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <v>8</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="6">
         <v>9</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="6">
         <v>10</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TestCaseFor_OrangeHRM.xlsx
+++ b/TestCaseFor_OrangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latitude\OneDrive\Pictures\Screenshots\Testing_class\Task\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83037B52-FDAD-48FF-9A2F-85E3C6DD4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B83CEF-1979-4191-B5EF-6F702D008F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E268510E-E7EF-4177-9496-93435FAB452B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>Project Name</t>
   </si>
@@ -48,11 +48,6 @@
     <t>Pre-Conditions</t>
   </si>
   <si>
-    <t>User must have an active internet connection.
-BookMyShow website must be accessible.
-Valid login credentials</t>
-  </si>
-  <si>
     <t>Test Case Reviewed By</t>
   </si>
   <si>
@@ -107,16 +102,6 @@
     <t>FUNCTIONAL</t>
   </si>
   <si>
-    <t>Verify login with valid credential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username : Admin
-Password : admin123 </t>
-  </si>
-  <si>
-    <t>User Successfully Login.</t>
-  </si>
-  <si>
     <t>As per expected result</t>
   </si>
   <si>
@@ -124,146 +109,48 @@
   </si>
   <si>
     <t>ORM_LGN_FN_TC0002</t>
-  </si>
-  <si>
-    <t>Verify login with wrong  credential</t>
   </si>
   <si>
     <t xml:space="preserve">Username : Admin123
 Password : admin@123 </t>
   </si>
   <si>
-    <t>invalid credential please login with valid credential.</t>
-  </si>
-  <si>
     <t>ORM_LGN_FN_TC0003</t>
-  </si>
-  <si>
-    <t>Verify login with starting letter with lowercase in username and valid valid password</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate this url https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: Enter the username with valid credential username.
-Step 3: Enter the password with valid credential password. 
-Step 4: Click on the Login button.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate this url https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: Enter the username with wrong credential username.
-Step 3: Enter the password with wrong credential password. 
-Step 4: Click on the Login button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Navigate this url https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: Enter  username with lowecase in starting letter.
-Step 3: Enter Password with valid credential.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Username : admin
 Password : admin123 </t>
   </si>
   <si>
-    <t>User Successfully Login</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>ORM_LGN_FN_TC0004</t>
-  </si>
-  <si>
-    <t>Verify login the starting two letters Uppercase in username credential with valid credential password.</t>
   </si>
   <si>
     <t xml:space="preserve">Username : ADmin
 Password : admin123 </t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid credential </t>
-  </si>
-  <si>
-    <t>Step 1: Navigate url   https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: Enter the username credential  use uppercase with starting  two letters.
-Steo 3: Enter the password with valid credentail.</t>
-  </si>
-  <si>
     <t>ORM_LGN_FN_TC0005</t>
   </si>
   <si>
-    <t>Verify the forgoteen password with valid username</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Step 1: Navigate url   https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: Click the Forgoteen password link 
-Steo 3: Enter the valid  username credential for change the password.
-Step 4: Check the email after click reset password.</t>
-  </si>
-  <si>
     <t>Username : Admin</t>
   </si>
   <si>
-    <t>A reset password link has been sent successfully to you via email.</t>
-  </si>
-  <si>
     <t>ORM_LGN_FN_TC0006</t>
   </si>
   <si>
-    <t>Verfiy the cancel button work or not after click forgoteen link.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Navigate url   https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: Click the Forgoteen password link 
-Step 3: Click on cancel button.
-Step 4: After click the cancel button, Login page will be showing.</t>
-  </si>
-  <si>
-    <t>Cancel button successfully worked.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">Verfiy the vacancies in recruitmrnt seacrhing with valid credential </t>
-  </si>
-  <si>
-    <t>Login credential: 
-Username : Admin
-Password: admin123
-recruitment data: 
-Job title : Developers
-vacancy: Senior QA Lead
-Hiring Manager: Abdullah Maaz
-Status: Active</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Navigate url   https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: After login with valid credteion click Recruitment button to the left panel.
-Step 3: Click vacancies in recruitment field.
-Step 4: Fill the all requirement filed with valid credential.
-Step 5: Click on search button.</t>
-  </si>
-  <si>
-    <t>Search records sucessfully</t>
-  </si>
-  <si>
     <t>ORM_SRHRQ_TC0001</t>
   </si>
   <si>
     <t>ORM_SRHRQ_TC0002</t>
-  </si>
-  <si>
-    <t>Verfiy the vacancies in recruitmrnt seacrhing with valid credential and update status has closed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Navigate url   https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: After login with valid credteion click Recruitment button to the left panel.
-Step 3: Click vacancies in recruitment field.
-Step 4: Fill the all requirement filed with valid credential and set status has closed.
-Step 5: Click on search button.</t>
   </si>
   <si>
     <t>Login credential: 
@@ -279,19 +166,6 @@
     <t>ORM_SRHRQ_TC0003</t>
   </si>
   <si>
-    <t>Chech the reset button after enter all the requirement with valid credential.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Navigate url   https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
-Step 2: After login with valid credteion click Recruitment button to the left panel.
-Step 3: Click vacancies in recruitment field.
-Step 4: Fill the all requirement filed with valid credential and set status has closed.
-Step 5: Click on reset button.</t>
-  </si>
-  <si>
-    <t>all the fields value has been reset.</t>
-  </si>
-  <si>
     <t>REGGRESSION</t>
   </si>
   <si>
@@ -299,24 +173,6 @@
   </si>
   <si>
     <t>Verify logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: check the right top profiel
-Step 2: Clcik the profile and check the logout option.
-Step 3: Click on logout field 
-</t>
-  </si>
-  <si>
-    <t>Logout sucessfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify to add vacancies </t>
-  </si>
-  <si>
-    <t>Step 1: Click on Vacancies at the top.
-Step 2: Click on Add from the below.
-Step 3: Enter the valid credential for all the required fields.
-Step 4: Click on Save button.</t>
   </si>
   <si>
     <t>Vacancy name :  Manual  Tester
@@ -335,22 +191,7 @@
     <t>ORM_SRHRQ_TC0005</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify to check the cancel button work or not From Add vacancies filed. </t>
-  </si>
-  <si>
-    <t>Step 1: Select Recruitment from the left.
-Step 2: Click on Vacancies from the top.
-Step 3: Clcik on Add button .
-Step 4: Scroll down and Click on Cancel Button from the below.</t>
-  </si>
-  <si>
     <t>ORM_MYINF_TC0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Select Myinfo from the left side.
-Step 2: Click on personal details.
-Step 3: Modify the all required fields with valid credential.
-Step 4: Click on save button from each fields. </t>
   </si>
   <si>
     <t>Employee full name: mike akhil user
@@ -366,22 +207,7 @@
 Test Field: 445</t>
   </si>
   <si>
-    <t>Modify details successfully saved</t>
-  </si>
-  <si>
     <t>ORM_MYINF_TC0002</t>
-  </si>
-  <si>
-    <t>Verfiy to Modify the Contact details</t>
-  </si>
-  <si>
-    <t>Verfiy to Modify the personal details</t>
-  </si>
-  <si>
-    <t>Step 1: Select Myinfo from the left side.
-Step 2: Click on Contact details.
-Step 3: Modify the all required fields with valid credential.
-Step 4: Click on save button.</t>
   </si>
   <si>
     <t xml:space="preserve">Street 1 : gandhi nagar 
@@ -394,29 +220,390 @@
 </t>
   </si>
   <si>
-    <t>Verfiy to modfily all field as blank and check to save</t>
-  </si>
-  <si>
-    <t>Step 1: Select Myinfo from the left side.
-Step 2: Click on Contact details.
-Step 3: Modify the all   fields as blank.
-Step 4: Click on save button.</t>
-  </si>
-  <si>
     <t>ORM_MYINF_TC0003</t>
   </si>
   <si>
-    <t>showing alert for Missing required fields</t>
-  </si>
-  <si>
-    <t>All the fields are blank but saved successfully</t>
+    <t>Verify login with valid credentials</t>
+  </si>
+  <si>
+    <t>User successfully logs in.</t>
+  </si>
+  <si>
+    <t>Verify login with incorrect credentials</t>
+  </si>
+  <si>
+    <t>Invalid credentials. Please log in with valid credentials.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+Step 2: Enter the username with valid credentials.
+Step 3: Enter the password with valid credentials.
+Step 4: Click the Login button.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: Admin
+Password: admin123 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Enter the username with incorrect credentials.
+Step 3: Enter the password with incorrect credentials.
+Step 4: Click the Login button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify login with username starting with a lowercase letter and a valid password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 2: Enter the username starting with a lowercase letter.
+Step 3: Enter the password with valid credentials.</t>
+    </r>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>User successfully logged in</t>
+  </si>
+  <si>
+    <t>Verify login with username starting with uppercase letters and a valid password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Enter the username starting with uppercase letters.
+Step 3: Enter the password with valid credentials.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid credentials </t>
+  </si>
+  <si>
+    <t>Verify the "Forgot Password" feature with a valid username</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Click the "Forgot Password" link.
+Step 3: Enter a valid username credential.
+Step 4: Check the email after clicking "Reset Password".</t>
+    </r>
+  </si>
+  <si>
+    <t>A reset password link has been sent successfully via email.</t>
+  </si>
+  <si>
+    <t>Verify the Cancel button functionality after clicking the "Forgot Password" link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Click the "Forgot Password" link.
+Step 3: Click the Cancel button.
+Step 4: Verify that the Login page is displayed again.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancel button works successfully.</t>
+  </si>
+  <si>
+    <t>Verify vacancies in recruitment by searching with valid credentials</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Log in with valid credentials.
+Step 3: Click "Recruitment" in the left panel.
+Step 4: Click "Vacancies" and fill the required fields with valid credentials.
+Step 5: Click the "Search" button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Username: Admin
+Password: admin123
+Recruitment data:
+Job title: Developers
+Vacancy: Senior QA Lead
+Hiring Manager: Abdullah Maaz
+Status: Active</t>
+  </si>
+  <si>
+    <t>Search records successfully.</t>
+  </si>
+  <si>
+    <t>Verify vacancies in recruitment by searching and updating the status to "Closed"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Log in with valid credentials.
+Step 3: Click "Recruitment" in the left panel.
+Step 4: Click "Vacancies", fill the required fields, and set the status to "Closed".
+Step 5: Click the "Search" button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the reset button functionality after filling the required fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Navigate to the URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2: Log in with valid credentials.
+Step 3: Click "Recruitment" in the left panel.
+Step 4: Click "Vacancies" and fill all the required fields.
+Step 5: Click the "Reset" button to clear the fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>All the field values are reset successfully.</t>
+  </si>
+  <si>
+    <t>Verify adding new vacancies</t>
+  </si>
+  <si>
+    <t>Step 1: Click "Vacancies" at the top.
+Step 2: Click "Add" at the bottom.
+Step 3: Enter valid credentials for all required fields.
+Step 4: Click the "Save" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Cancel button functionality in the Add Vacancies form </t>
+  </si>
+  <si>
+    <t>Step 1: Select "Recruitment" from the left panel.
+Step 2: Click "Vacancies" at the top.
+Step 3: Click "Add" and scroll down.
+Step 4: Click the "Cancel" button at the bottom.</t>
+  </si>
+  <si>
+    <t>Verify modifying personal details</t>
+  </si>
+  <si>
+    <t>Step 1: Select "My Info" from the left panel.
+Step 2: Click "Personal Details".
+Step 3: Modify all required fields with valid credentials.
+Step 4: Click the "Save" button for each field.</t>
+  </si>
+  <si>
+    <t>Personal details modified and saved successfully</t>
+  </si>
+  <si>
+    <t>Verify modifying contact details</t>
+  </si>
+  <si>
+    <t>Step 1: Select "My Info" from the left panel.
+Step 2: Click "Contact Details".
+Step 3: Modify all required fields with valid credentials.
+Step 4: Click the "Save" button.</t>
+  </si>
+  <si>
+    <t>Contact details modified and saved successfully</t>
+  </si>
+  <si>
+    <t>Verify modifying all fields as blank and attempting to save</t>
+  </si>
+  <si>
+    <t>Step 1: Select "My Info" from the left panel.
+Step 2: Click "Contact Details".
+Step 3: Clear all fields to leave them blank.
+Step 4: Click the "Save" button.</t>
+  </si>
+  <si>
+    <t>Shows alert for missing required fields.</t>
+  </si>
+  <si>
+    <t>All fields are blank but saved successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Check the profile icon in the top-right corner.
+Step 2: Click the profile and check for the Logout option.
+Step 3: Click the Logout button.
+</t>
+  </si>
+  <si>
+    <t>Logout successfully.</t>
+  </si>
+  <si>
+    <t>User must have a valid username and password.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +628,26 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -966,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2069E3-5B59-4449-8F28-2034C8C7B723}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1187,7 @@
     <col min="7" max="7" width="35.85546875" customWidth="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
@@ -990,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1024,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1038,7 +1245,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
@@ -1053,7 +1260,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="20">
         <v>45648</v>
@@ -1071,37 +1278,37 @@
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,31 +1316,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="L9" s="6"/>
     </row>
@@ -1142,97 +1349,97 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L12" s="11"/>
     </row>
@@ -1241,31 +1448,31 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -1274,130 +1481,130 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="2:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="L17" s="6"/>
     </row>
@@ -1406,62 +1613,62 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -1470,126 +1677,126 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="2:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="J21" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>92</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="K22" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23" s="6"/>
     </row>
